--- a/Scraping23/src/test/resources/excelsheets/pcosrecipeNonAllergy.xlsx
+++ b/Scraping23/src/test/resources/excelsheets/pcosrecipeNonAllergy.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="pcos" r:id="rId5" sheetId="2"/>
+    <sheet name="pcos" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="132">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -58,7 +56,7 @@
     <t>No matched Recipe Category</t>
   </si>
   <si>
-    <t>No matched Food Category</t>
+    <t>Veg</t>
   </si>
   <si>
     <t xml:space="preserve">4 cups brinjal (baingan / eggplant) cubes
@@ -107,7 +105,7 @@
 Sodium 17.1 mg</t>
   </si>
   <si>
-    <t>HyperTension</t>
+    <t>pcos</t>
   </si>
   <si>
     <t>https://www.tarladalal.com/baingan-methi-ki-sabzi-39681r</t>
@@ -236,50 +234,16 @@
     <t>https://www.tarladalal.com/walnut-and-cherry-tomato-salad-quick-cherry-tomato-salad-36139r</t>
   </si>
   <si>
-    <t>Recipe# 763</t>
-  </si>
-  <si>
-    <t>Anti- Aging Breakfast Platter</t>
+    <t>Recipe# 42265</t>
+  </si>
+  <si>
+    <t>Quinoa Veg Upma, Vegan Breakfast</t>
   </si>
   <si>
     <t>Breakfast</t>
   </si>
   <si>
-    <t xml:space="preserve">2 tbsp sprouted moong (whole green gram)
-1/4 cup low fat paneer (cottage cheese) cubes
-1/4 tsp chilli powder
-1/4 tsp cumin seeds (jeera) powder
-1/4 tsp rock salt (sendha namak)
-6 oranges segments
-1/2 cup watermelon (tarbuj) balls
-1/4 cup green grapes
-2 dates (khajur)
-4 walnuts (akhrot)
-5 almonds (badam)
-</t>
-  </si>
-  <si>
-    <t>For anti- aging breakfast platter
-To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
-Arrange all the ingredients on a platter and serve immediately.</t>
-  </si>
-  <si>
-    <t>Energy 324 cal
-Protein 15 g
-Carbohydrates 46.1 g
-Fiber 5.8 g
-Fat 9 g
-Cholesterol 0.1 mg
-Sodium 153.5 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
-  </si>
-  <si>
-    <t>Recipe# 42265</t>
-  </si>
-  <si>
-    <t>Quinoa Veg Upma, Vegan Breakfast</t>
+    <t>No matched Food Category</t>
   </si>
   <si>
     <t xml:space="preserve">1/2 cup quinoa , washed and drained
@@ -583,6 +547,9 @@
     <t>Til Masala Khakhra, Spicy Sesame Wheat Khakhra</t>
   </si>
   <si>
+    <t>Jain</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/2 cup whole wheat flour (gehun ka atta)
 1 tsp sesame seeds (til)
 1/4 tsp turmeric powder (haldi)
@@ -823,13 +790,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -838,244 +806,32 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -1265,483 +1021,448 @@
         <v>45</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>25</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>25</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>25</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J13" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J15" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="G17" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="H17" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J18" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="B19" t="s" s="0">
         <v>131</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="H19" t="s" s="0">
-        <v>133</v>
-      </c>
-      <c r="I19" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="J19" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="K19" t="s" s="0">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
